--- a/assets/resources/database.xlsx
+++ b/assets/resources/database.xlsx
@@ -2,17 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Delphi\SGLGB-System\Win32\assets\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Delphi\Development\MCS Project\SGLGB VCL\New Version\assets\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35025" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7650" windowHeight="8310" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="DCF" sheetId="1" r:id="rId1"/>
+    <sheet name="FAS" sheetId="1" r:id="rId1"/>
+    <sheet name="DP" sheetId="5" r:id="rId2"/>
+    <sheet name="SPO" sheetId="6" r:id="rId3"/>
+    <sheet name="SPS" sheetId="7" r:id="rId4"/>
+    <sheet name="BFC" sheetId="10" r:id="rId5"/>
+    <sheet name="EM" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="655">
   <si>
     <t>Description</t>
   </si>
@@ -261,16 +266,9 @@
     <t>sre</t>
   </si>
   <si>
-    <t>Certification on Increase in Local Resources signed by the City/Municipal 
-Treasurer/ Budget Officer</t>
-  </si>
-  <si>
     <t>sglgb126</t>
   </si>
   <si>
-    <t>certification</t>
-  </si>
-  <si>
     <t>CY 2022</t>
   </si>
   <si>
@@ -304,17 +302,9 @@
     <t>inn_pro_of_res</t>
   </si>
   <si>
-    <t>con_pro_of_res</t>
-  </si>
-  <si>
     <t>1.3. Approval of the Barangay Budget on the Specified Timeframe</t>
   </si>
   <si>
-    <t>Approved Barangay Appropriation Ordinance signed by the Sangguniang 
-Barangay Members (SBMs), SK Chairperson, Barangay Secretary, and 
-Punong Barangay.</t>
-  </si>
-  <si>
     <t>sglgb131</t>
   </si>
   <si>
@@ -342,9 +332,6 @@
     <t>approval_rem</t>
   </si>
   <si>
-    <t>con_rem</t>
-  </si>
-  <si>
     <t>inn_rem</t>
   </si>
   <si>
@@ -372,10 +359,6 @@
     <t>per_nta_all_dev_pro</t>
   </si>
   <si>
-    <t>Not less than 5% shall be set aside as the Local Disaster Risk Reduction 
-and Management Fund</t>
-  </si>
-  <si>
     <t>per_not_less_loc_dis</t>
   </si>
   <si>
@@ -400,10 +383,6 @@
     <t>sen_cit_and_per_with_dis</t>
   </si>
   <si>
-    <t>Implementation of the programs of the Local Councils for the Protection
-of Children</t>
-  </si>
-  <si>
     <t>sglgb140</t>
   </si>
   <si>
@@ -417,10 +396,6 @@
   </si>
   <si>
     <t>ten_per_for_san_kab</t>
-  </si>
-  <si>
-    <t>Annual Investment Program signed by Barangay Treasurer, Barangay
-Secretary, and Punong Barangay</t>
   </si>
   <si>
     <t>sglgb142</t>
@@ -494,10 +469,6 @@
     <t>a) Copy of the written agreement; and</t>
   </si>
   <si>
-    <t>b) Proof of deposit reflecting the Account No./Name of Barangay SK and
-the total allocated amount for the 2023 SK funds</t>
-  </si>
-  <si>
     <t>sglgb148</t>
   </si>
   <si>
@@ -519,10 +490,6 @@
     <t>MOVs for 1.6.1.2</t>
   </si>
   <si>
-    <t>Deposit slips reflecting the Account No./ Name of Barangay SK and the 
-total allocated amount for the 2023 SK funds</t>
-  </si>
-  <si>
     <t>sglgb151</t>
   </si>
   <si>
@@ -530,15 +497,6 @@
   </si>
   <si>
     <t>MOVs for 1.6.1.3</t>
-  </si>
-  <si>
-    <t>(a) Proof of transfer of the 10% 2023 SK funds to the trust funds of the
-Barangay such as Deposit Slip or Official Receipt; OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(b) Proof of transfer or corresponding legal forms/documents issued by
-the city/muncipal treasurer if the barangay opted that the corresponding SK fund be kept as trust funds in the custody of the C/M treasurer.
-</t>
   </si>
   <si>
     <t>sglgb153</t>
@@ -617,9 +575,6 @@
     <t>sglgb159</t>
   </si>
   <si>
-    <t>post_act_rep</t>
-  </si>
-  <si>
     <t>1.7 Remarks</t>
   </si>
   <si>
@@ -639,6 +594,1553 @@
   </si>
   <si>
     <t>anex_b_of_dbm</t>
+  </si>
+  <si>
+    <t>2.1. Functionality of the Barangay Disaster Risk Reduction and Management Committee (BDRRMC)</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs) organizing the BDRRMC with its composition compliant to the provisions of JMC No. 2014-01, covering January to October 2023</t>
+  </si>
+  <si>
+    <t>blob</t>
+  </si>
+  <si>
+    <t>BFDP Monitoring Attachment</t>
+  </si>
+  <si>
+    <t>tdbgBfdpAttachment</t>
+  </si>
+  <si>
+    <t>bfdp_att</t>
+  </si>
+  <si>
+    <t>List of Notices Award Attachment</t>
+  </si>
+  <si>
+    <t>tdbgListAttachment</t>
+  </si>
+  <si>
+    <t>list_att</t>
+  </si>
+  <si>
+    <t>Itemized Monthly Collections and Disbursements Attachment</t>
+  </si>
+  <si>
+    <t>tdbgItemizedAttachment</t>
+  </si>
+  <si>
+    <t>itemized_att</t>
+  </si>
+  <si>
+    <t>Certification on Increase in Local Resources signed by the City/Municipal Treasurer/ Budget Officer</t>
+  </si>
+  <si>
+    <t>Approved Barangay Appropriation Ordinance signed by the Sangguniang Barangay Members (SBMs), SK Chairperson, Barangay Secretary, and Punong Barangay.</t>
+  </si>
+  <si>
+    <t>Not less than 5% shall be set aside as the Local Disaster Risk Reduction and Management Fund</t>
+  </si>
+  <si>
+    <t>Implementation of the programs of the Local Councils for the Protection of Children</t>
+  </si>
+  <si>
+    <t>Annual Investment Program signed by Barangay Treasurer, Barangay Secretary, and Punong Barangay</t>
+  </si>
+  <si>
+    <t>Date of approval</t>
+  </si>
+  <si>
+    <t>Approved BDRRM Plan adopted by the Sangguniang Barangay ;</t>
+  </si>
+  <si>
+    <t>approved_bdrrm</t>
+  </si>
+  <si>
+    <t>Resolution adopting the BDRRM Plan signed by the Sangguniang Barangay with received stamp from the C/MDRRMO; and</t>
+  </si>
+  <si>
+    <t>resolution_ado</t>
+  </si>
+  <si>
+    <t>Certification on the list of barangays with approved and adopted BDRRM Plan covering CY 2023 signed by the C/MDRRMO.</t>
+  </si>
+  <si>
+    <t>Certification on the allocation of at least 5% of the Estimated Revenue from Regular Sources as BDRRM Fund, signed by the City/Municipal Budget Officer</t>
+  </si>
+  <si>
+    <t>Please supply the following information:</t>
+  </si>
+  <si>
+    <t>Estimated revenue from regular sources:</t>
+  </si>
+  <si>
+    <t>estimated_rev_from_reg</t>
+  </si>
+  <si>
+    <t>Amount of BDRRMF for FY 2023:</t>
+  </si>
+  <si>
+    <t>amount_of_bdrrmf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> At least 50% accomplishment of the physical targets in the BDRRM Plan</t>
+    </r>
+  </si>
+  <si>
+    <t>Accomplishment Report; and</t>
+  </si>
+  <si>
+    <t>accomplishment_rep</t>
+  </si>
+  <si>
+    <t>Certification on the submission and correctness of  Accomplishment Report signed by the C/MDRRMO</t>
+  </si>
+  <si>
+    <t>% of programs, project, and activities are completed</t>
+  </si>
+  <si>
+    <t>bdrrmc_percent_of_prog</t>
+  </si>
+  <si>
+    <t>Annual  BDRRMF Utilization Report; and</t>
+  </si>
+  <si>
+    <t>annual_bdrrmf</t>
+  </si>
+  <si>
+    <t>Certification on the submission and correctness of fund utilization report signed by the C/MDRRMO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> At least 50% fund utilization of the 70% component of CY 2023 BDRRMF - Preparedness component as of December 31, 2023.</t>
+    </r>
+  </si>
+  <si>
+    <t>Amount utilized (as of Dec. 31, 2023):</t>
+  </si>
+  <si>
+    <t>Amount allocated for PPAs in the BDRRM Plan for CY 2023:</t>
+  </si>
+  <si>
+    <t>2.1 Processing of Results</t>
+  </si>
+  <si>
+    <t>2.1 Remarks</t>
+  </si>
+  <si>
+    <t>Post-Activity Report of activities such as Climate and Disaster Risk Assessment, Participatory Disaster Risk Assessment, BDRRM Planning, etc.</t>
+  </si>
+  <si>
+    <t>2.2. Extent of Risk Assessment and Early Warning System (EWS)</t>
+  </si>
+  <si>
+    <t>Two (2) Photo documentations of Barangay Risk/Hazard Map</t>
+  </si>
+  <si>
+    <t>con_post_act_rep</t>
+  </si>
+  <si>
+    <t>com_rem</t>
+  </si>
+  <si>
+    <t>com_pro_of_res</t>
+  </si>
+  <si>
+    <t>Deposit slips reflecting the Account No./ Name of Barangay SK and the total allocated amount for the 2023 SK funds</t>
+  </si>
+  <si>
+    <t>b) Proof of deposit reflecting the Account No./Name of Barangay SK and the total allocated amount for the 2023 SK funds</t>
+  </si>
+  <si>
+    <t>(a) Proof of transfer of the 10% 2023 SK funds to the trust funds of the Barangay such as Deposit Slip or Official Receipt; OR</t>
+  </si>
+  <si>
+    <t>(b) Proof of transfer or corresponding legal forms/documents issued by the city/muncipal treasurer if the barangay opted that the corresponding SK fund be kept as trust funds in the custody of the C/M treasurer.</t>
+  </si>
+  <si>
+    <t>ews_post_act_rep</t>
+  </si>
+  <si>
+    <t>Two (2) Photo documentations of EWS</t>
+  </si>
+  <si>
+    <t>ews_photo_doc1</t>
+  </si>
+  <si>
+    <t>ews_photo_doc2</t>
+  </si>
+  <si>
+    <t>2.2 Remarks</t>
+  </si>
+  <si>
+    <t>2.2 Processing of Results</t>
+  </si>
+  <si>
+    <t>ews_pro_of_res</t>
+  </si>
+  <si>
+    <t>ews_rem</t>
+  </si>
+  <si>
+    <t>TOP 1 Hazard:</t>
+  </si>
+  <si>
+    <t>TOP 2 Hazard:</t>
+  </si>
+  <si>
+    <t>ews_top_one_haz</t>
+  </si>
+  <si>
+    <t>ews_top_two_haz</t>
+  </si>
+  <si>
+    <t>2.3. Extent of Preparedness For Effective Response And Recovery</t>
+  </si>
+  <si>
+    <t>Two (2) Photo documentation of the permanent or temporary evacuation center; and</t>
+  </si>
+  <si>
+    <t>Certification on the presence and location of a permanent or temporary evacuation center signed by the C/MDRRMO</t>
+  </si>
+  <si>
+    <t>extent_cert</t>
+  </si>
+  <si>
+    <t>Photo Documentation for each of disaster supplies equipment:</t>
+  </si>
+  <si>
+    <t>extent_photo_doc1</t>
+  </si>
+  <si>
+    <t>extent_photo_doc2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Rescue vehicle/Alternative vehicle;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">a. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Communication equipment;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Generator set/alternative sources of energy;</t>
+    </r>
+  </si>
+  <si>
+    <t>rescue_veh</t>
+  </si>
+  <si>
+    <t>com_equ</t>
+  </si>
+  <si>
+    <t>generator_set</t>
+  </si>
+  <si>
+    <t>2.3 Processing of Results</t>
+  </si>
+  <si>
+    <t>2.3 Remarks</t>
+  </si>
+  <si>
+    <t>extent_rem</t>
+  </si>
+  <si>
+    <t>extent_pro_of_res</t>
+  </si>
+  <si>
+    <t>3.1. Functionality of the Barangay Anti-Drug Abuse Council (BADAC)</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs) creating the BADAC with its composition and appropriate committees, covering January to October 2023</t>
+  </si>
+  <si>
+    <t>bdrrmc_date_of_app</t>
+  </si>
+  <si>
+    <t>badac_date_of_app</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs) establishing the Rehabilitation Referral Desk covering CY 2023</t>
+  </si>
+  <si>
+    <t>eo_creting_the_badac</t>
+  </si>
+  <si>
+    <t>eo_estab_the_rehab</t>
+  </si>
+  <si>
+    <t>rehab_date_of_app</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs), organizing house clusters with designated HCL</t>
+  </si>
+  <si>
+    <t>eo_orga_hou_clus</t>
+  </si>
+  <si>
+    <t>organizing_hou_date_of_app</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs), organizing BAT</t>
+  </si>
+  <si>
+    <t>eo_orga_bat</t>
+  </si>
+  <si>
+    <t>organizing_bat_date_of_app</t>
+  </si>
+  <si>
+    <t>Copy of approved BADPA Summary or copy of approved BPOPs Plan with BADPA covering CY  2023</t>
+  </si>
+  <si>
+    <t>copy_of_app</t>
+  </si>
+  <si>
+    <t>Approved Barangay Appropriation Ordinance signed by the PB, Barangay Secretary and SBMs;  OR</t>
+  </si>
+  <si>
+    <t>approved_bara_appr</t>
+  </si>
+  <si>
+    <t>Copy of Barangay Annual Investment Plan (AIP)</t>
+  </si>
+  <si>
+    <t>copy_of_bar_ann</t>
+  </si>
+  <si>
+    <t>Has allocated substantial amount for anti-illegal drugs initiative</t>
+  </si>
+  <si>
+    <t>has_allo_subs</t>
+  </si>
+  <si>
+    <t>Copy of Activity Report prepared by BADAC</t>
+  </si>
+  <si>
+    <t>copy_of_act_rep</t>
+  </si>
+  <si>
+    <t>Three (3) transmittals of CIR, covering the 1st to 3rd quarter, received by CADAC/MADAC and Local PNP Unit</t>
+  </si>
+  <si>
+    <t>three_trans_of_cir</t>
+  </si>
+  <si>
+    <t>Transmittals of CIR were submitted</t>
+  </si>
+  <si>
+    <t>transmittals_of_cir</t>
+  </si>
+  <si>
+    <t>Certification on  the  submitted CIR signed by the CADAC/MADAC and Local PNP Unit</t>
+  </si>
+  <si>
+    <t>Accomplished BADAC Form 4- Unified Barangay Report on Referral Action (UBRA)</t>
+  </si>
+  <si>
+    <t>accomplished_badac_form</t>
+  </si>
+  <si>
+    <t>Copy of the BADAC monthly minutes of the meeting with attendance sheets (at least 3 minutes covering CY 2023)</t>
+  </si>
+  <si>
+    <t>copy_of_the_badac_mont</t>
+  </si>
+  <si>
+    <t>BADAC monthly minutes of the meeting with attendance sheets were submitted</t>
+  </si>
+  <si>
+    <t>badac_month_min</t>
+  </si>
+  <si>
+    <t>badac_rem</t>
+  </si>
+  <si>
+    <t>badac_pro_of_res</t>
+  </si>
+  <si>
+    <t>3.2. Functionality of the Barangay Peace and Order Committee (BPOC)</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs) indicating correct membership in accordance to the EO 366 s. of 1996, covering January to October 2023</t>
+  </si>
+  <si>
+    <t>bpoc_ind_corr_mem</t>
+  </si>
+  <si>
+    <t>bpoc_date_of_app</t>
+  </si>
+  <si>
+    <t>Approved BPOPS Plan, covering CY 2023</t>
+  </si>
+  <si>
+    <t>approved_bpops_plan</t>
+  </si>
+  <si>
+    <t>a. At least 50% accomplishment of the physical targets in the BPOPS Plan</t>
+  </si>
+  <si>
+    <t>Accomplishment Report with  the  status of implementation of target activities and utilization of funds  submitted to the C/M POC with received stamp of the DILG City Director or C/MLGOO</t>
+  </si>
+  <si>
+    <t>accomplished_rep</t>
+  </si>
+  <si>
+    <t>b. At least 50% fund utilization rate of the CY 2023 BPOPs Budget.</t>
+  </si>
+  <si>
+    <t>bdrrmc_eo</t>
+  </si>
+  <si>
+    <t>bdrrmc_amo_uti</t>
+  </si>
+  <si>
+    <t>bdrrmc_amo_all</t>
+  </si>
+  <si>
+    <t>bdrrmc_rem</t>
+  </si>
+  <si>
+    <t>bdrrmc_pro_of_res</t>
+  </si>
+  <si>
+    <t>bdrrmc_at_least_fifty_per_acc</t>
+  </si>
+  <si>
+    <t>bdrrmc_at_least_fifty_per_fund</t>
+  </si>
+  <si>
+    <t>bpoc_at_least_fifty_per_acc</t>
+  </si>
+  <si>
+    <t>bpoc_per_of_prog</t>
+  </si>
+  <si>
+    <t>bpoc_at_least_fifty_per_fund</t>
+  </si>
+  <si>
+    <t>bdrrmc_accomplishment_rep</t>
+  </si>
+  <si>
+    <t>bpoc_amo_uti</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>Amount allocated for PPAs in the BPOPs Plan for CY 2023:</t>
+  </si>
+  <si>
+    <t>bpoc_amo_all</t>
+  </si>
+  <si>
+    <t>bpoc_rem</t>
+  </si>
+  <si>
+    <t>bpoc_pro_of_res</t>
+  </si>
+  <si>
+    <t>3.2 Remarks</t>
+  </si>
+  <si>
+    <t>3.2 Processing of Results</t>
+  </si>
+  <si>
+    <t>3.3. Functionality of the Lupong Tagapamayapa (LT)</t>
+  </si>
+  <si>
+    <t>At least ten (10) KP Form # 5- Oath of Office of the Lupong Tagapamayapa Members, signed by the PB</t>
+  </si>
+  <si>
+    <t>at_least_ten_kp_form</t>
+  </si>
+  <si>
+    <t>For barangays of cities: Two (2) photos with caption of the computer database with searchable information</t>
+  </si>
+  <si>
+    <t>for_bar_of_cit</t>
+  </si>
+  <si>
+    <t>For barangays of municipalities: One (1) photo, with caption on the manual record or digital file</t>
+  </si>
+  <si>
+    <t>for_bar_of_mun</t>
+  </si>
+  <si>
+    <t>Copies of minutes of meetings with attendance sheets (at least 3 minutes covering meetings conducted in CY 2023)</t>
+  </si>
+  <si>
+    <t>copies_of_min</t>
+  </si>
+  <si>
+    <t>At least 1 copy of proof of training such as Certificate of Completion and/or Participation</t>
+  </si>
+  <si>
+    <t>lt_rem</t>
+  </si>
+  <si>
+    <t>lt_pro_of_res</t>
+  </si>
+  <si>
+    <t>3.4. Organization and Strengthening Capacities of Barangay Tanod</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs) on the organization of the Barangay Tanod covering January to October 2023</t>
+  </si>
+  <si>
+    <t>Organization_date_of_app</t>
+  </si>
+  <si>
+    <t>At least one (1) copy of proof of training such as Certificate of Completion and/or Participation</t>
+  </si>
+  <si>
+    <t>at_least_one_copy_of_pro</t>
+  </si>
+  <si>
+    <t>lt_at_least_one_copy_of_pro</t>
+  </si>
+  <si>
+    <t>3.5. Barangay Initiatives During Health Emergencies</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs)on the organization of BHERTs covering January to October 2023</t>
+  </si>
+  <si>
+    <t>eo_on_the_orga_of_the_bar</t>
+  </si>
+  <si>
+    <t>eo_on_the_orga_of_bherts</t>
+  </si>
+  <si>
+    <t>barangay_date_of_app</t>
+  </si>
+  <si>
+    <t>(a) Two (2) Photo documentations of poster or tarpaulin; OR</t>
+  </si>
+  <si>
+    <t>barangay_photo_doc</t>
+  </si>
+  <si>
+    <t>(b) Screenshot of the posting on social media with date covering CY 2023.</t>
+  </si>
+  <si>
+    <t>screenshot_of_the_post</t>
+  </si>
+  <si>
+    <t>3.3 Remarks</t>
+  </si>
+  <si>
+    <t>3.3 Processing of Results</t>
+  </si>
+  <si>
+    <t>4.3 Processing of Results</t>
+  </si>
+  <si>
+    <t>4.3 Remarks</t>
+  </si>
+  <si>
+    <t>organization_pro_of_res</t>
+  </si>
+  <si>
+    <t>organization_rem</t>
+  </si>
+  <si>
+    <t>5.3 Remarks</t>
+  </si>
+  <si>
+    <t>5.3 Processing of Results</t>
+  </si>
+  <si>
+    <t>barangay_pro_of_res</t>
+  </si>
+  <si>
+    <t>3.1 Remarks</t>
+  </si>
+  <si>
+    <t>3.1 Processing of Results</t>
+  </si>
+  <si>
+    <t>3.4 Remarks</t>
+  </si>
+  <si>
+    <t>3.4 Processing of Results</t>
+  </si>
+  <si>
+    <t>3.5 Remarks</t>
+  </si>
+  <si>
+    <t>3.5 Processing of Results</t>
+  </si>
+  <si>
+    <t>4.1. Functionality of Barangay Violence Against Women (VAW) Desk</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs) on the establishment of Barangay VAW Desk and designated VAW Desk Officer covering January to October 2023</t>
+  </si>
+  <si>
+    <t>vaw_at_least_one_copy</t>
+  </si>
+  <si>
+    <t>Approved Barangay GAD Plan and Budget for CY 2023</t>
+  </si>
+  <si>
+    <t>approved_bar_gad_plan</t>
+  </si>
+  <si>
+    <t>Accomplishment Report covering 1st to 3rd quarter of CY 2023 with received stamp by the C/MSWDO and C/MLGOO</t>
+  </si>
+  <si>
+    <t>accomplishment_rep_cov</t>
+  </si>
+  <si>
+    <t>Quarterly Accomplishment Reports were submitted</t>
+  </si>
+  <si>
+    <t>quaterly_acc_rep</t>
+  </si>
+  <si>
+    <t>Copy of the generated report or screenshot of the updated database on VAW cases reported to the barangay with the following information at the minimum:</t>
+  </si>
+  <si>
+    <t>3.6. Conduct of Monthly Barangay Road Clearing Operations (BaRCO)</t>
+  </si>
+  <si>
+    <t>Monthly BarCo Reports covering July-September 2023</t>
+  </si>
+  <si>
+    <t>monthly_barco_rep</t>
+  </si>
+  <si>
+    <t>Monthly BarCo Reports were submitted</t>
+  </si>
+  <si>
+    <t>monthly_barco_rep_were_sub</t>
+  </si>
+  <si>
+    <t>Total number of VAW cases received</t>
+  </si>
+  <si>
+    <t>copy_of_the_gen_rep</t>
+  </si>
+  <si>
+    <t>total_num_of_vaw</t>
+  </si>
+  <si>
+    <t>Total number of cases documented for violating other VAW-related laws</t>
+  </si>
+  <si>
+    <t>total_num_of_cases_doc</t>
+  </si>
+  <si>
+    <t>Total number of assistance provided to victim-survivors</t>
+  </si>
+  <si>
+    <t>total_num_of_assi</t>
+  </si>
+  <si>
+    <t>2023 GAD Accomplishment Report</t>
+  </si>
+  <si>
+    <t>vaw_gad_acc_rep</t>
+  </si>
+  <si>
+    <t>a. At least 50% accomplishment of the physical targets in the GAD Plan</t>
+  </si>
+  <si>
+    <t>Certification on the submitted  CY 2023 GAD Accomplishment Report indicating at least 50% accomplishment of the physical targets in the GAD Plan signed by the C/MSWDO or C/MLGOO</t>
+  </si>
+  <si>
+    <t>vaw_per_of_prog</t>
+  </si>
+  <si>
+    <t>b. At least 50% fund utilization of the CY 2023 GAD Budget</t>
+  </si>
+  <si>
+    <t>vaw_at_least_fifty_per_fund_uti</t>
+  </si>
+  <si>
+    <t>vaw_at_least_fifty_per_acc</t>
+  </si>
+  <si>
+    <t>Certification on the submitted  CY 2023 GAD Accomplishment Report indicating at least 50% fund utilization of the CY 2023 GAD Budget signed by the C/MSWDO or C/MLGOO</t>
+  </si>
+  <si>
+    <t>vaw_cer_acc</t>
+  </si>
+  <si>
+    <t>vaw_cer_fund_uti</t>
+  </si>
+  <si>
+    <t>inn_cer_on_inc</t>
+  </si>
+  <si>
+    <t>bdrrmc_cer_on_the_list</t>
+  </si>
+  <si>
+    <t>bdrrmc_cer_on_the_allo</t>
+  </si>
+  <si>
+    <t>a_cer_on_the_sub</t>
+  </si>
+  <si>
+    <t>b_cer_on_the_sub</t>
+  </si>
+  <si>
+    <t>badac_cer_on_the_sub_cir</t>
+  </si>
+  <si>
+    <t>Amount allocated for PPAs in the GAD Plan:</t>
+  </si>
+  <si>
+    <t>vaw_amo_uti</t>
+  </si>
+  <si>
+    <t>vaw_amo_all</t>
+  </si>
+  <si>
+    <t>vaw_rem</t>
+  </si>
+  <si>
+    <t>vaw_pro_of_res</t>
+  </si>
+  <si>
+    <t>4.1 Remarks</t>
+  </si>
+  <si>
+    <t>4.1 Processing of Results</t>
+  </si>
+  <si>
+    <t>Flowchart based on Annex C - Establishment of Referral System</t>
+  </si>
+  <si>
+    <t>vaw_flo_based_on_ann</t>
+  </si>
+  <si>
+    <t>Annex J - Directory Form</t>
+  </si>
+  <si>
+    <t>vaw_ann</t>
+  </si>
+  <si>
+    <t>4.2. Access to Health and Social Welfare Services in the Barangay</t>
+  </si>
+  <si>
+    <t>Photo documentation of the BHS/C</t>
+  </si>
+  <si>
+    <t>For clustered BHS/C: Certification from C/MHO on the clustering 
+scheme</t>
+  </si>
+  <si>
+    <t>access_photo_doc_of_the_bhs</t>
+  </si>
+  <si>
+    <t>for_clu_bhs</t>
+  </si>
+  <si>
+    <t>Barangay Health Station/Center operated by the barangay</t>
+  </si>
+  <si>
+    <t>barangay_heal_sta</t>
+  </si>
+  <si>
+    <t>Clustered Health Station/Center accessed by several barangays in a city/municipality (Consideration)</t>
+  </si>
+  <si>
+    <t>clustered_heal_sta</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs) on the Appointment of BHW covering January to October 2023</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs) on the Appointment of BHO or BHAsst covering January to October 2023</t>
+  </si>
+  <si>
+    <t>eo_on_the_app_bhw</t>
+  </si>
+  <si>
+    <t>eo_on_the_app_bho</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs) on the appointment of BNS</t>
+  </si>
+  <si>
+    <t>eo_on_the_app_bns</t>
+  </si>
+  <si>
+    <t>Certification on the provision of health services signed by the C/MHO</t>
+  </si>
+  <si>
+    <t>certification_on_the_pro</t>
+  </si>
+  <si>
+    <t>a. Immunization</t>
+  </si>
+  <si>
+    <t>b. Maternal and child healthcare</t>
+  </si>
+  <si>
+    <t>c. Family Planning</t>
+  </si>
+  <si>
+    <t>d. Health Education</t>
+  </si>
+  <si>
+    <t>access_imm</t>
+  </si>
+  <si>
+    <t>access_fam</t>
+  </si>
+  <si>
+    <t>access_mat</t>
+  </si>
+  <si>
+    <t>access_heal</t>
+  </si>
+  <si>
+    <t>access_rem</t>
+  </si>
+  <si>
+    <t>access_pro_of_res</t>
+  </si>
+  <si>
+    <t>4.2 Processing of Results</t>
+  </si>
+  <si>
+    <t>4.2 Remarks</t>
+  </si>
+  <si>
+    <t>4.3. Functionality of the Barangay Development Council (BDC)</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs) organizing/reconstituting the BDC with its composition compliant to Section 107 of RA 7160 covering January to October 2023</t>
+  </si>
+  <si>
+    <t>eo_orga_or_rec</t>
+  </si>
+  <si>
+    <t>Post activity report or Minutes  with attendance sheet, covering CY 2023</t>
+  </si>
+  <si>
+    <t>post_act_rep_or_min</t>
+  </si>
+  <si>
+    <t>Approved Barangay Development Plan covering CY 2023</t>
+  </si>
+  <si>
+    <t>SB Resolution adopting the BDP</t>
+  </si>
+  <si>
+    <t>approved_bar_dev_plan</t>
+  </si>
+  <si>
+    <t>sb_res_ado_the_bdp</t>
+  </si>
+  <si>
+    <t>CY 2023 Accomplishment Report with received stamp by the C/MPDC</t>
+  </si>
+  <si>
+    <t>bdc_cy_year_acc</t>
+  </si>
+  <si>
+    <t>a. At least 50% accomplishment of the physical targets in the BDP</t>
+  </si>
+  <si>
+    <t>bdc_at_least_fifty_per_acc</t>
+  </si>
+  <si>
+    <t>bdc_per_of_prog</t>
+  </si>
+  <si>
+    <t>b. At least 50% fund utilization rate of the CY 2023  BDP Budget</t>
+  </si>
+  <si>
+    <t>bdc_at_least_fifty_per_fund_uti</t>
+  </si>
+  <si>
+    <t>Amount allocated for PPAs in the BDP:</t>
+  </si>
+  <si>
+    <t>bdc_amo_uti</t>
+  </si>
+  <si>
+    <t>bdc_amo_all</t>
+  </si>
+  <si>
+    <t>bdc_rem</t>
+  </si>
+  <si>
+    <t>bdc_pro_of_res</t>
+  </si>
+  <si>
+    <t>4.4. Implementation of the Kasambahay Law</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs) designating a KDO to manage the Kasambahay Desk, signed by the PB, Barangay Secretary and SBMs covering January to October 2023</t>
+  </si>
+  <si>
+    <t>eo_des_a_kdo</t>
+  </si>
+  <si>
+    <t>Copy of the Updated Kasambahay Report for the 3rd Quarter 
+(July-September 2023)</t>
+  </si>
+  <si>
+    <t>copy_of_the_upd_kas</t>
+  </si>
+  <si>
+    <t>Kasambahay Reports were submitted</t>
+  </si>
+  <si>
+    <t>kasambahay_rep_were_sub</t>
+  </si>
+  <si>
+    <t>imp_rem</t>
+  </si>
+  <si>
+    <t>imp_pro_of_res</t>
+  </si>
+  <si>
+    <t>4.4 Processing of Results</t>
+  </si>
+  <si>
+    <t>4.4 Remarks</t>
+  </si>
+  <si>
+    <t>4.5. Functionality of the Barangay Council for the Protection of Children (BCPC)</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs) on the establishment of BCPC covering January to October 2023</t>
+  </si>
+  <si>
+    <t>vaw_eo_on_the_estab</t>
+  </si>
+  <si>
+    <t>bcpc_eo_on_the_estab</t>
+  </si>
+  <si>
+    <t>At least one (1) copy of proof of training such as Certificate of Completion 
+and/or Participation</t>
+  </si>
+  <si>
+    <t>bcpc_at_least_one_copy</t>
+  </si>
+  <si>
+    <t>Approved BCPC Annual Work and Financial Plan (AWFP) for CY 2023</t>
+  </si>
+  <si>
+    <t>approved_bcpc_ann_work</t>
+  </si>
+  <si>
+    <t>Copy of the generated report or screenshot of the updated database on children covering January to October 31, 2023</t>
+  </si>
+  <si>
+    <t>bcpc_copy_of_the_gen</t>
+  </si>
+  <si>
+    <t>Updated Localized Flow Chart of Referral System</t>
+  </si>
+  <si>
+    <t>bcpc_upd_loc_flo</t>
+  </si>
+  <si>
+    <t>Copy of Comprehensive Barangay Juvenile Intervention Program/Diversion Program</t>
+  </si>
+  <si>
+    <t>bcpc_copy_of_comp_bar</t>
+  </si>
+  <si>
+    <t>Copy of Juvenile Justice and Welfare Council’s Children at Risk (CAR) and Children in Conflict with the Law (CICL) registry</t>
+  </si>
+  <si>
+    <t>bcpc_copy_of_juv_jus</t>
+  </si>
+  <si>
+    <t>Approved Accomplishment Report on BCPC AWFP for CY 2023 with received stamp  by the City/Municipality Inter-Agency Monitoring Task Force (IMTF)</t>
+  </si>
+  <si>
+    <t>bcpc_app_acc_rep</t>
+  </si>
+  <si>
+    <t>bcpc_at_least_fifty_per_acc</t>
+  </si>
+  <si>
+    <t>bcpc_per_of_prog</t>
+  </si>
+  <si>
+    <t>bcpc_at_least_fifty_per_uti</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> At least 50% utilization rate of CY 2023 BCPC AWFP Budget</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> At least 50% accomplishment of the physical targets in the BCPC AWFP</t>
+    </r>
+  </si>
+  <si>
+    <t>bcpc_amo_uti</t>
+  </si>
+  <si>
+    <t>Amount allocated for PPAs in the BCPC AWFP:</t>
+  </si>
+  <si>
+    <t>bcpc_amo_all</t>
+  </si>
+  <si>
+    <t>4.5 Remarks</t>
+  </si>
+  <si>
+    <t>4.5 Processing of Results</t>
+  </si>
+  <si>
+    <t>barangay_rem</t>
+  </si>
+  <si>
+    <t>bcpc_rem</t>
+  </si>
+  <si>
+    <t>bcpc_pro_of_res</t>
+  </si>
+  <si>
+    <t>4.6. Mechanism for Gender and Development (GAD)</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs) organizing the Barangay GAD Focal Point System covering January to October 2023</t>
+  </si>
+  <si>
+    <t>eo_orga_the_bar_gad_focal</t>
+  </si>
+  <si>
+    <t>gad_date_of_app</t>
+  </si>
+  <si>
+    <t>4.6 Remarks</t>
+  </si>
+  <si>
+    <t>4.6 Processing of Results</t>
+  </si>
+  <si>
+    <t>gad_rem</t>
+  </si>
+  <si>
+    <t>gad_pro_of_res</t>
+  </si>
+  <si>
+    <t>4.7. Maintenance of Updated Record of Barangay Inhabitants (RBIs)</t>
+  </si>
+  <si>
+    <t>RBI Monitoring Form C</t>
+  </si>
+  <si>
+    <t>rbi_mon_form</t>
+  </si>
+  <si>
+    <t>List of barangays with RBI covering the 1st Semester of CY 2023 (generated from the BIS-BPS) certified by the C/MLGOO</t>
+  </si>
+  <si>
+    <t>list_of_bar_with_rbi</t>
+  </si>
+  <si>
+    <t>4.7 Remarks</t>
+  </si>
+  <si>
+    <t>4.7 Processing of Results</t>
+  </si>
+  <si>
+    <t>rbi_pro_of_res</t>
+  </si>
+  <si>
+    <t>rbi_rem</t>
+  </si>
+  <si>
+    <t>4.8. Functionality of the Barangay Nutrition Committee (BNC)</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs) organizing the Barangay Nutrition Committee (BNC) covering January to October 2023</t>
+  </si>
+  <si>
+    <t>eo_orga_the_bar_nutr</t>
+  </si>
+  <si>
+    <t>Approved CY 2023 BNAP signed by the BNC</t>
+  </si>
+  <si>
+    <t>bnc_app_cy_year_bnap</t>
+  </si>
+  <si>
+    <t>Operation Timbang (OPT) Plus Form 1A (Barangay Tally and Summary Sheet of Preschoolers with Weight &amp; Height Measurement by Age Group, Sex and Nutritional Status) of CYs 2022 and 2023</t>
+  </si>
+  <si>
+    <t>bnc_opt</t>
+  </si>
+  <si>
+    <t>Certification from the C/MHO on the Decrease in Prevalence Rate</t>
+  </si>
+  <si>
+    <t>bnc_cer_from_c_or_mho</t>
+  </si>
+  <si>
+    <t>1. With decrease in prevalence rate of Underweight and Severe Underweight</t>
+  </si>
+  <si>
+    <t>bnc_with_dec_1</t>
+  </si>
+  <si>
+    <t>bnc_with_dec_2</t>
+  </si>
+  <si>
+    <t>bnc_with_dec_3</t>
+  </si>
+  <si>
+    <t>2. With decrease in prevalence rate of  Stunting and Severe Stunting</t>
+  </si>
+  <si>
+    <t>3. With decrease in prevalence rate of Moderate Wasting and Severe Wasting</t>
+  </si>
+  <si>
+    <t>Accomplishment Report on CY 2023 BNAP;</t>
+  </si>
+  <si>
+    <t>bnc_acc_rep</t>
+  </si>
+  <si>
+    <t>a. At least 50% accomplishment of the physical targets in the CY 2023 BNAP</t>
+  </si>
+  <si>
+    <t>bnc_at_least_fifty_per_acc</t>
+  </si>
+  <si>
+    <t>Certification on the submitted BNAP Accomplishment Report for CY 2023 indicating at least 50% accomplishment of the physical targets in the BNAP signed by the C/MLGOO</t>
+  </si>
+  <si>
+    <t>bnc_per_of_prog</t>
+  </si>
+  <si>
+    <t>b. At least 50% fund utilization rate of the CY 2023 BNAP Budget.</t>
+  </si>
+  <si>
+    <t>bnc_at_least_fifty_per_fund_uti</t>
+  </si>
+  <si>
+    <t>Certification on the submitted BNAP Accomplishment Report for CY 2023 indicating at least 50% fund utilization rate of the CY 2023 BNAP Budget signed by the C/MLGOO</t>
+  </si>
+  <si>
+    <t>bnc_cer_acc</t>
+  </si>
+  <si>
+    <t>bnc_cer_fund_uti</t>
+  </si>
+  <si>
+    <t>bnc_amo_uti</t>
+  </si>
+  <si>
+    <t>bnc_amo_all</t>
+  </si>
+  <si>
+    <t>Amount allocated for PPAs in the BNAP:</t>
+  </si>
+  <si>
+    <t>4.8 Remarks</t>
+  </si>
+  <si>
+    <t>4.8 Processing of Results</t>
+  </si>
+  <si>
+    <t>bnc_pro_of_res</t>
+  </si>
+  <si>
+    <t>bnc_rem</t>
+  </si>
+  <si>
+    <t>4.9. Halina't Magtanim ng Prutas at Gulay (HAPAG) sa Barangay Project - For Profiling Purposes Only</t>
+  </si>
+  <si>
+    <t>Photo documentation of the established BCG</t>
+  </si>
+  <si>
+    <t>hapag_photo_doc</t>
+  </si>
+  <si>
+    <t>Ordinance signed by the PB, Barangay Secretary and SBMs) on the establishment of a BCG</t>
+  </si>
+  <si>
+    <t>hapag_ord_sig</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs) on the designated SMB to manage the BCG</t>
+  </si>
+  <si>
+    <t>eo_on_the_des_smb</t>
+  </si>
+  <si>
+    <t>hapag_date_of_app2</t>
+  </si>
+  <si>
+    <t>hapag_date_of_app1</t>
+  </si>
+  <si>
+    <t>Proof of conduct of at least one (1) Advocacy Campaign/Awareness (Photo/Social Media Post, PAR/AR, etc.)</t>
+  </si>
+  <si>
+    <t>hapag_pro_of_con</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs) on the established group volunteers</t>
+  </si>
+  <si>
+    <t>eo_on_the_esta_gro</t>
+  </si>
+  <si>
+    <t>hapag_date_of_app3</t>
+  </si>
+  <si>
+    <t>4.9 Remarks</t>
+  </si>
+  <si>
+    <t>4.9 Processing of Results</t>
+  </si>
+  <si>
+    <t>hapag_rem</t>
+  </si>
+  <si>
+    <t>hapag_pro_of_res</t>
+  </si>
+  <si>
+    <t>5.1. Power to Levy Other Taxes, Fees, or Charges</t>
+  </si>
+  <si>
+    <t>Enacted Barangay Tax Ordinance signed by the PB, Barangay Secretary and SBMs</t>
+  </si>
+  <si>
+    <t>enacted_bar_tax_ord</t>
+  </si>
+  <si>
+    <t>5.1 Remarks</t>
+  </si>
+  <si>
+    <t>5.1 Processing of Results</t>
+  </si>
+  <si>
+    <t>power_rem</t>
+  </si>
+  <si>
+    <t>power_pro_of_res</t>
+  </si>
+  <si>
+    <t>5.2. Compliance to Section 11 of RA 11032 of the Ease of Doing Business Law</t>
+  </si>
+  <si>
+    <t>Enacted Barangay Ordinance (signed by the PB, Barangay Secretary and SBMs) relative to Barangay Clearance Fees on business permit and locational clearance for building permit</t>
+  </si>
+  <si>
+    <t>enacted_bar_ord_rel_to_bar</t>
+  </si>
+  <si>
+    <t>Approved resolution authorizing the City/Municipal Treasurer to collect fees for Barangay Clearance for Business permit and locational clearance purposes signed by PB, Barangay Secretary and SBMs.</t>
+  </si>
+  <si>
+    <t>approved_res_aut_the_city</t>
+  </si>
+  <si>
+    <t>5.2 Remarks</t>
+  </si>
+  <si>
+    <t>5.2 Processing of Results</t>
+  </si>
+  <si>
+    <t>com_to_sec_rem</t>
+  </si>
+  <si>
+    <t>com_to_sec_pro_of_res</t>
+  </si>
+  <si>
+    <t>5.3. Issuance of Barangay Clearance not covered by DILG MC No. 2019-177 such as: residency, indigency, etc, within seven (7) working days</t>
+  </si>
+  <si>
+    <t>Photo documentation of the Citizens’ Charter on the issuance of barangay clearance only (name of the barangay should be visible)</t>
+  </si>
+  <si>
+    <t>iss_photo_doc</t>
+  </si>
+  <si>
+    <t>iss_rem</t>
+  </si>
+  <si>
+    <t>iss_pro_of_res</t>
+  </si>
+  <si>
+    <t>6.1. Functionality of the Barangay Ecological Solid Waste Management Committee (BESWMC)</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs) on the organization of the BESWMC</t>
+  </si>
+  <si>
+    <t>eo_on_the_orga_beswmc</t>
+  </si>
+  <si>
+    <t>beswmc_date_of_app</t>
+  </si>
+  <si>
+    <t>Approved Solid Waste Management Program/Plan covering CY 2023 with corresponding fund allocation</t>
+  </si>
+  <si>
+    <t>beswmc_app_solid_waste_man</t>
+  </si>
+  <si>
+    <t>beswmc_at_least_one</t>
+  </si>
+  <si>
+    <t>Three (3) Monthly Accomplishment Reports covering July-September 2023</t>
+  </si>
+  <si>
+    <t>beswmc_three_mon_acc_rep</t>
+  </si>
+  <si>
+    <t>Monthly Accomplishment Reports were submitted</t>
+  </si>
+  <si>
+    <t>beswmc_mon_acc_rep_sub</t>
+  </si>
+  <si>
+    <t>a. At least 50% accomplishment of the physical targets in the BESWMP</t>
+  </si>
+  <si>
+    <t>beswmc_per_of_prog</t>
+  </si>
+  <si>
+    <t>b. At least 50% utilization rate of CY 2023 BESWM Budget</t>
+  </si>
+  <si>
+    <t>beswmc_at_least_fifty_per_uti</t>
+  </si>
+  <si>
+    <t>beswmc_at_least_fifty_per_acc</t>
+  </si>
+  <si>
+    <t>beswmc_amo_uti</t>
+  </si>
+  <si>
+    <t>Amount allocated for PPAs in the BESWM Plan:</t>
+  </si>
+  <si>
+    <t>beswmc_amo_all</t>
+  </si>
+  <si>
+    <t>6.2. Existence of a Solid Waste Management Facility Pursuant to R.A. 9003</t>
+  </si>
+  <si>
+    <t>Photo documentation of the MRF/MRF Records of the barangay</t>
+  </si>
+  <si>
+    <t>existence_photo_doc</t>
+  </si>
+  <si>
+    <t>MOA with junkshop;</t>
+  </si>
+  <si>
+    <t>existence_moa_with_junkshop</t>
+  </si>
+  <si>
+    <t>MOA with service provider for collection of biodegradable  and rcyclables for treatment temporary storage</t>
+  </si>
+  <si>
+    <t>existence_moa_with_ser_pro</t>
+  </si>
+  <si>
+    <t>MOA with the host barangay (applicable for barangay-clustered MRFs);</t>
+  </si>
+  <si>
+    <t>existence_moa_with_the_host</t>
+  </si>
+  <si>
+    <t>MOA or LGU document indicating coverage of city/municipal MRF (applicable for barangays clustered to the Central MRF of City/Municipality)</t>
+  </si>
+  <si>
+    <t>existence_moa_or_lgu</t>
+  </si>
+  <si>
+    <t>6.1 Remarks</t>
+  </si>
+  <si>
+    <t>6.1 Processing of Results</t>
+  </si>
+  <si>
+    <t>beswmc_to_sec_pro_of_res</t>
+  </si>
+  <si>
+    <t>beswmc_to_sec_rem</t>
+  </si>
+  <si>
+    <t>6.2 Remarks</t>
+  </si>
+  <si>
+    <t>6.2 Processing of Results</t>
+  </si>
+  <si>
+    <t>existence_to_sec_rem</t>
+  </si>
+  <si>
+    <t>existence_to_sec_pro_of_res</t>
+  </si>
+  <si>
+    <t>6.3. Provision of Support Mechanisms for Segregated Collection</t>
+  </si>
+  <si>
+    <t>EO (signed by the PB) or similar issuance (resolution/ordinance signed by the PB, Barangay Secretary and SBMs) on segregation of wastes at-source</t>
+  </si>
+  <si>
+    <t>provision_date_of_app</t>
+  </si>
+  <si>
+    <t>eo_on_segregation_of_waste</t>
+  </si>
+  <si>
+    <t>6.3 Remarks</t>
+  </si>
+  <si>
+    <t>6.3 Processing of Results</t>
+  </si>
+  <si>
+    <t>provision_pro_of_res</t>
+  </si>
+  <si>
+    <t>provision_iss_rem</t>
   </si>
 </sst>
 </file>
@@ -702,15 +2204,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -721,8 +2220,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1004,10 +2518,1029 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+    </row>
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>183</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A55:D55"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:D87"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,944 +3566,3515 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D22" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" t="s">
+        <v>329</v>
+      </c>
+      <c r="D27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" t="s">
+        <v>329</v>
+      </c>
+      <c r="D31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" t="s">
+        <v>329</v>
+      </c>
+      <c r="D33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" t="s">
+        <v>329</v>
+      </c>
+      <c r="D34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" t="s">
+        <v>329</v>
+      </c>
+      <c r="D35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" t="s">
+        <v>329</v>
+      </c>
+      <c r="D36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37" t="s">
+        <v>329</v>
+      </c>
+      <c r="D37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B38" t="s">
+        <v>329</v>
+      </c>
+      <c r="D38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A24:D24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D96"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
+      <c r="A3" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
+        <v>329</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
+      <c r="A5" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
+        <v>329</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
+      <c r="A7" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="B8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D9" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" t="s">
-        <v>92</v>
+      <c r="D23" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>85</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s">
+        <v>329</v>
+      </c>
+      <c r="D33" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B34" t="s">
+        <v>329</v>
+      </c>
+      <c r="D34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B35" t="s">
+        <v>328</v>
+      </c>
+      <c r="D35" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B36" t="s">
+        <v>328</v>
+      </c>
+      <c r="D36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B37" t="s">
         <v>5</v>
       </c>
-      <c r="C33" t="s">
-        <v>87</v>
+      <c r="D37" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="B38" t="s">
+        <v>329</v>
+      </c>
+      <c r="D38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B41" t="s">
+        <v>329</v>
+      </c>
+      <c r="D41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B42" t="s">
+        <v>329</v>
+      </c>
+      <c r="D42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B43" t="s">
+        <v>329</v>
+      </c>
+      <c r="D43" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B44" t="s">
+        <v>329</v>
+      </c>
+      <c r="D44" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B45" t="s">
+        <v>329</v>
+      </c>
+      <c r="D45" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A56:D56"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D122"/>
+  <sheetViews>
+    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B29" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B30" t="s">
+        <v>329</v>
+      </c>
+      <c r="D30" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B31" t="s">
+        <v>329</v>
+      </c>
+      <c r="D31" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B32" t="s">
+        <v>329</v>
+      </c>
+      <c r="D32" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B33" t="s">
+        <v>329</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>86</v>
+        <v>441</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" t="s">
-        <v>88</v>
+        <v>329</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B35" t="s">
+        <v>329</v>
+      </c>
+      <c r="D35" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>94</v>
+        <v>445</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" t="s">
-        <v>95</v>
+        <v>329</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>96</v>
+        <v>446</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" t="s">
-        <v>100</v>
+        <v>329</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>99</v>
+        <v>447</v>
       </c>
       <c r="B38" t="s">
+        <v>329</v>
+      </c>
+      <c r="D38" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>448</v>
+      </c>
+      <c r="B39" t="s">
+        <v>329</v>
+      </c>
+      <c r="D39" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B40" t="s">
         <v>5</v>
       </c>
-      <c r="C38" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="D40" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>108</v>
+      <c r="A41" s="13" t="s">
+        <v>455</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" t="s">
-        <v>109</v>
+        <v>329</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>116</v>
+      <c r="A42" s="13"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>458</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" t="s">
-        <v>118</v>
+        <v>329</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>120</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>460</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" t="s">
-        <v>121</v>
+        <v>329</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>123</v>
+        <v>462</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" t="s">
-        <v>124</v>
+        <v>329</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>126</v>
+      <c r="A47" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" t="s">
-        <v>127</v>
+        <v>329</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>129</v>
+        <v>466</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" t="s">
-        <v>130</v>
+        <v>329</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>132</v>
+        <v>468</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" t="s">
-        <v>133</v>
+        <v>329</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" t="s">
-        <v>136</v>
+        <v>328</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>140</v>
+        <v>471</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" t="s">
-        <v>138</v>
+        <v>329</v>
       </c>
       <c r="D51" t="s">
-        <v>139</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" t="s">
+        <v>328</v>
+      </c>
+      <c r="D52" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>142</v>
+        <v>473</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" t="s">
-        <v>143</v>
+        <v>328</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="A54" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C54" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" t="s">
-        <v>149</v>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B55" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" t="s">
-        <v>154</v>
-      </c>
-      <c r="D55" t="s">
-        <v>150</v>
+      <c r="A55" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="14" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D58" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" t="s">
-        <v>158</v>
+      <c r="A57" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+    </row>
+    <row r="58" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="14" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" t="s">
-        <v>162</v>
-      </c>
-      <c r="D61" t="s">
-        <v>163</v>
+      <c r="A60" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" t="s">
-        <v>168</v>
-      </c>
-      <c r="D63" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B64" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" t="s">
-        <v>167</v>
-      </c>
-      <c r="D64" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B67" t="s">
-        <v>31</v>
-      </c>
-      <c r="C67" t="s">
-        <v>173</v>
-      </c>
-      <c r="D67" t="s">
-        <v>174</v>
+      <c r="A62" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+    </row>
+    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="14" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="14" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B68" t="s">
-        <v>31</v>
-      </c>
-      <c r="C68" t="s">
-        <v>176</v>
-      </c>
-      <c r="D68" t="s">
-        <v>177</v>
+      <c r="A68" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="14" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>180</v>
-      </c>
-      <c r="B70" t="s">
-        <v>31</v>
-      </c>
-      <c r="C70" t="s">
-        <v>181</v>
-      </c>
-      <c r="D70" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>183</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="A69" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="14" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="14" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="14" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="14" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C71" t="s">
-        <v>184</v>
-      </c>
-      <c r="D71" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>186</v>
-      </c>
-      <c r="B72" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" t="s">
-        <v>187</v>
-      </c>
-      <c r="D72" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="C78" s="11"/>
+      <c r="D78" s="11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+    </row>
+    <row r="82" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="14"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="14" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="14" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+    </row>
+    <row r="94" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="14" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C95" s="11"/>
+      <c r="D95" s="14" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="14" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C97" s="11"/>
+      <c r="D97" s="14" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="14" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C99" s="11"/>
+      <c r="D99" s="14" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C100" s="11"/>
+      <c r="D100" s="14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C101" s="11"/>
+      <c r="D101" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C104" s="11"/>
+      <c r="D104" s="14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C105" s="11"/>
+      <c r="D105" s="14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C106" s="11"/>
+      <c r="D106" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C107" s="11"/>
+      <c r="D107" s="14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C108" s="11"/>
+      <c r="D108" s="14" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C110" s="11"/>
+      <c r="D110" s="14" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C113" s="11"/>
+      <c r="D113" s="14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C114" s="11"/>
+      <c r="D114" s="14" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="11"/>
+      <c r="D115" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C116" s="11"/>
+      <c r="D116" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" s="11"/>
+      <c r="D117" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C118" s="11"/>
+      <c r="D118" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C119" s="11"/>
+      <c r="D119" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="11"/>
+      <c r="D120" s="14" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C122" s="11"/>
+      <c r="D122" s="14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A81:D81"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="B10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="B12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B15" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="14" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-    </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B74" t="s">
-        <v>31</v>
-      </c>
-      <c r="C74" t="s">
-        <v>191</v>
-      </c>
-      <c r="D74" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>193</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="D9" s="14" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C75" t="s">
-        <v>194</v>
-      </c>
-      <c r="D75" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>196</v>
-      </c>
-      <c r="B76" t="s">
-        <v>31</v>
-      </c>
-      <c r="C76" t="s">
-        <v>197</v>
-      </c>
-      <c r="D76" t="s">
-        <v>198</v>
-      </c>
+      <c r="C15"/>
+      <c r="D15" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="B16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="B20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="B22" t="s">
+        <v>329</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="B23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="B25" t="s">
+        <v>329</v>
+      </c>
+      <c r="D25" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B28" t="s">
+        <v>329</v>
+      </c>
+      <c r="D28" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="14" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A52:D52"/>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/resources/database.xlsx
+++ b/assets/resources/database.xlsx
@@ -9,15 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7650" windowHeight="8310" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7650" windowHeight="8310"/>
   </bookViews>
   <sheets>
-    <sheet name="FAS" sheetId="1" r:id="rId1"/>
-    <sheet name="DP" sheetId="5" r:id="rId2"/>
-    <sheet name="SPO" sheetId="6" r:id="rId3"/>
-    <sheet name="SPS" sheetId="7" r:id="rId4"/>
-    <sheet name="BFC" sheetId="10" r:id="rId5"/>
-    <sheet name="EM" sheetId="11" r:id="rId6"/>
+    <sheet name="User" sheetId="15" r:id="rId1"/>
+    <sheet name="Details" sheetId="14" r:id="rId2"/>
+    <sheet name="FAS" sheetId="1" r:id="rId3"/>
+    <sheet name="DP" sheetId="5" r:id="rId4"/>
+    <sheet name="SPO" sheetId="6" r:id="rId5"/>
+    <sheet name="SPS" sheetId="7" r:id="rId6"/>
+    <sheet name="BFC" sheetId="10" r:id="rId7"/>
+    <sheet name="EM" sheetId="11" r:id="rId8"/>
+    <sheet name="Setup" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="702">
   <si>
     <t>Description</t>
   </si>
@@ -2142,12 +2145,153 @@
   <si>
     <t>provision_iss_rem</t>
   </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Barangay Logo</t>
+  </si>
+  <si>
+    <t>Barangay Name</t>
+  </si>
+  <si>
+    <t>LGU Logo</t>
+  </si>
+  <si>
+    <t>Bagong Pilipinas Logo</t>
+  </si>
+  <si>
+    <t>barangay_name</t>
+  </si>
+  <si>
+    <t>serial_number</t>
+  </si>
+  <si>
+    <t>barangay_logo</t>
+  </si>
+  <si>
+    <t>lgu_logo</t>
+  </si>
+  <si>
+    <t>bagong_pil_logo</t>
+  </si>
+  <si>
+    <t>sglgb106</t>
+  </si>
+  <si>
+    <t>sglgb107</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>user001</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Profile Picture</t>
+  </si>
+  <si>
+    <t>Last Login</t>
+  </si>
+  <si>
+    <t>Date Joined</t>
+  </si>
+  <si>
+    <t>date_joined</t>
+  </si>
+  <si>
+    <t>Is Admin?</t>
+  </si>
+  <si>
+    <t>Is Active?</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>is_admin</t>
+  </si>
+  <si>
+    <t>last_login</t>
+  </si>
+  <si>
+    <t>profile_picture</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>email_add</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>user002</t>
+  </si>
+  <si>
+    <t>user003</t>
+  </si>
+  <si>
+    <t>user004</t>
+  </si>
+  <si>
+    <t>user005</t>
+  </si>
+  <si>
+    <t>user006</t>
+  </si>
+  <si>
+    <t>user007</t>
+  </si>
+  <si>
+    <t>user008</t>
+  </si>
+  <si>
+    <t>user009</t>
+  </si>
+  <si>
+    <t>user010</t>
+  </si>
+  <si>
+    <t>user011</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2167,6 +2311,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2204,7 +2354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2238,6 +2388,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2518,11 +2670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,23 +2698,213 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="D3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="D4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="D5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>675</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="D6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>676</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="D7" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>677</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="D8" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>679</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>698</v>
+      </c>
+      <c r="D9" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>678</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="D10" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="D11" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>682</v>
+      </c>
+      <c r="B12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="D12" t="s">
+        <v>683</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="A2" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2" s="18" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2572,12 +2913,12 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -2586,955 +2927,1146 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>667</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>668</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>670</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D80"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
       <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>189</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>194</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>59</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>63</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C26" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>66</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>68</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>69</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>73</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" t="s">
-        <v>77</v>
-      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
       <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
         <v>78</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>31</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>86</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>31</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>91</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>31</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>98</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" t="s">
-        <v>105</v>
-      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
         <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>201</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>106</v>
       </c>
       <c r="B46" t="s">
         <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="B47" t="s">
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
         <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>202</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>114</v>
       </c>
       <c r="B49" t="s">
         <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="B50" t="s">
         <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>203</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>119</v>
       </c>
       <c r="B51" t="s">
         <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="B52" t="s">
         <v>31</v>
       </c>
       <c r="C52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s">
         <v>125</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" t="s">
-        <v>128</v>
-      </c>
-      <c r="D53" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>31</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>130</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-    </row>
-    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>31</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>135</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>140</v>
-      </c>
-      <c r="D57" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>31</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>145</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" t="s">
-        <v>146</v>
-      </c>
-      <c r="D61" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="B62" t="s">
         <v>31</v>
       </c>
       <c r="C62" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
         <v>147</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>31</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>152</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="B66" t="s">
-        <v>31</v>
-      </c>
-      <c r="C66" t="s">
-        <v>156</v>
-      </c>
-      <c r="D66" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="B67" t="s">
         <v>31</v>
       </c>
       <c r="C67" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" t="s">
         <v>155</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B70" t="s">
-        <v>31</v>
-      </c>
-      <c r="C70" t="s">
-        <v>161</v>
-      </c>
-      <c r="D70" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B71" t="s">
         <v>31</v>
       </c>
       <c r="C71" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" t="s">
         <v>164</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>168</v>
-      </c>
-      <c r="B73" t="s">
-        <v>31</v>
-      </c>
-      <c r="C73" t="s">
-        <v>169</v>
-      </c>
-      <c r="D73" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>174</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>31</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>175</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-    </row>
-    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+    </row>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>31</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>179</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>180</v>
-      </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" t="s">
-        <v>181</v>
-      </c>
-      <c r="D78" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>183</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>31</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>184</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D80" t="s">
         <v>185</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A56:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D87"/>
@@ -4269,7 +4801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D96"/>
   <sheetViews>
@@ -5171,7 +5703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D122"/>
   <sheetViews>
@@ -6530,7 +7062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -6727,12 +7259,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7079,4 +7611,251 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>